--- a/Project_UI2/Project_UI/ExcelFile/demo.xlsx
+++ b/Project_UI2/Project_UI/ExcelFile/demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SEM 6 IT\AAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SEM 6 IT\SUBJECTS\AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34A0B1C-B0B5-4AA0-AC50-02547ED26952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3E639-C6DC-4811-94B7-E03E308FF045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{B60AEB12-2B55-43EB-B208-1A0EE51642C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B60AEB12-2B55-43EB-B208-1A0EE51642C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tarun</t>
   </si>
@@ -69,25 +69,13 @@
     <t>Prajapati</t>
   </si>
   <si>
-    <t>tarun912@gmail.com</t>
-  </si>
-  <si>
-    <t>hansilchapdiya@gmail.com</t>
-  </si>
-  <si>
-    <t>pranavbhimani@gmail.com</t>
-  </si>
-  <si>
-    <t>Sanket</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Arshil</t>
-  </si>
-  <si>
-    <t>Abdul</t>
+    <t>tarun.prajapati912@gmail.com</t>
+  </si>
+  <si>
+    <t>chapdiyahansil@gmail.com</t>
+  </si>
+  <si>
+    <t>pranavbhimani04@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -453,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B72B08-3733-48B9-A272-49C97767B395}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,210 +523,45 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2061203160138</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>206120316010</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>206120316039</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>206120316035</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>206120316001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>206120316002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>206120316004</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>206120316011</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>206120316012</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>206120316020</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>206120316050</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{986A57E6-332A-471F-91C4-DC134BA6695C}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{445DF5DE-59F0-483F-82E5-FFCD17F4BF4D}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{B941AD5D-7C12-4665-AC28-9DA4E3DF45D3}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{419F2DFE-A1AC-499E-A52C-361FB04CD45E}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{138A9D29-AAE5-4C6F-A378-8F8E28418766}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{B8A8E956-082E-423B-AD13-668DCB46F9E4}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{21DB1B92-F469-4F5A-9C99-D8211144848F}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{57C9566C-D356-4C12-BDCB-F62F365C367C}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{0FA8BE2C-BA06-4F91-8C66-DDE2F1BB95BB}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{33A3F4A6-6F2A-4A98-B646-38506387C54F}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{45140E25-0288-4E3F-979A-AA7FF8BC35C1}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{96159FCA-B5CC-4F14-A607-AAE6D59C7C49}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{E8B65963-9728-457D-9B4F-5A0016D584D8}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{48EE3A09-331B-45E8-BE88-148A31CEC2CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Project_UI2/Project_UI/ExcelFile/demo.xlsx
+++ b/Project_UI2/Project_UI/ExcelFile/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SEM 6 IT\SUBJECTS\AAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3E639-C6DC-4811-94B7-E03E308FF045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4077B9-6D4F-4C5E-B864-1ED1CDD4A1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B60AEB12-2B55-43EB-B208-1A0EE51642C8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="204">
   <si>
     <t>Tarun</t>
   </si>
@@ -48,41 +48,602 @@
     <t>Middle Name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Jayantibhai</t>
   </si>
   <si>
     <t>Shaileshkumar</t>
   </si>
   <si>
-    <t>Bharatbhai</t>
-  </si>
-  <si>
     <t>Bhimani</t>
   </si>
   <si>
-    <t>Chapdiya</t>
-  </si>
-  <si>
     <t>Prajapati</t>
   </si>
   <si>
+    <t>Sanket</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Arshil</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>hinalbpatel1006@gmail.com</t>
+  </si>
+  <si>
+    <t>mihirathod2525@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivampatel3650@gmail.com </t>
+  </si>
+  <si>
+    <t>kunjd26@gmail.com</t>
+  </si>
+  <si>
+    <t>garimamishra34567@gmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khushbugohil7202@gmail.com </t>
+  </si>
+  <si>
     <t>tarun.prajapati912@gmail.com</t>
   </si>
   <si>
-    <t>chapdiyahansil@gmail.com</t>
-  </si>
-  <si>
-    <t>pranavbhimani04@gmail.com</t>
+    <t xml:space="preserve">agohil24a@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deepgoti12@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr9012454@gmail.com </t>
+  </si>
+  <si>
+    <t>dhruvpatel050604@gmail.com</t>
+  </si>
+  <si>
+    <t>bhuvannakarani2005@gmail.com</t>
+  </si>
+  <si>
+    <t>vaibhavsanghani35@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jenilgadhiya59@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pranavbhimani04@gmail.com </t>
+  </si>
+  <si>
+    <t>vasubhimani93@gmail.com</t>
+  </si>
+  <si>
+    <t>vadoliyakeval@gmail.com</t>
+  </si>
+  <si>
+    <t>rajvimangroliya1305@gmail.com</t>
+  </si>
+  <si>
+    <t>goswamirudra873@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patelkaran8402@gmail.com </t>
+  </si>
+  <si>
+    <t>Parth.kansara9898@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prashant.kansara9898@gmail.com </t>
+  </si>
+  <si>
+    <t>fparmar163@gmail.com</t>
+  </si>
+  <si>
+    <t>chinchavaleayush29874@gmail.com</t>
+  </si>
+  <si>
+    <t>fenilgajjar2265@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishal1713vsl@gmail.com </t>
+  </si>
+  <si>
+    <t>keyurpatel298744@gmail.com</t>
+  </si>
+  <si>
+    <t>burkhawalavishnu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yashchauhan180705@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gauravdudharejiya53@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arshilhapani2004@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranaprem2961@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tc9828001@gmail.com </t>
+  </si>
+  <si>
+    <t>sanketsadadiya53@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milanbhingradiya00@gmail.com </t>
+  </si>
+  <si>
+    <t>hiteshbaisane76@gmail.com</t>
+  </si>
+  <si>
+    <t>chapadiyahansil@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sujaljadhav986@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">baria3060nihar@gmail.com </t>
+  </si>
+  <si>
+    <t>devilbaria9702@gmail.com</t>
+  </si>
+  <si>
+    <t>jashpastagia0@gmail.com</t>
+  </si>
+  <si>
+    <t>JITANSHUT04@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>harigavhale@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdulahadperwaiz9@gmail.com </t>
+  </si>
+  <si>
+    <t>patelzeel424@gmail.com</t>
+  </si>
+  <si>
+    <t>naitikpatel1205@gmail.com</t>
+  </si>
+  <si>
+    <t>burhansurti52@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dharmikpatel262008@gmail.com </t>
+  </si>
+  <si>
+    <t>kishantalaviya1004@gmail.com</t>
+  </si>
+  <si>
+    <t>pujanmevawala@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rutu.rmd2020@gmail.com </t>
+  </si>
+  <si>
+    <t>kalpeshvibhute13@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtivipul35@gmail.com </t>
+  </si>
+  <si>
+    <t>Pandey1564@gmail.com</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Hinalben</t>
+  </si>
+  <si>
+    <t>Kishorbhai</t>
+  </si>
+  <si>
+    <t>Rathod</t>
+  </si>
+  <si>
+    <t>Mihir</t>
+  </si>
+  <si>
+    <t>Jagdishbhai</t>
+  </si>
+  <si>
+    <t>shivam</t>
+  </si>
+  <si>
+    <t>rajeshkumar</t>
+  </si>
+  <si>
+    <t>Kunj</t>
+  </si>
+  <si>
+    <t>Dipakbhai</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>Garima</t>
+  </si>
+  <si>
+    <t>Manikant</t>
+  </si>
+  <si>
+    <t>Gohil</t>
+  </si>
+  <si>
+    <t>Khushbu</t>
+  </si>
+  <si>
+    <t>Ghanshyambhai</t>
+  </si>
+  <si>
+    <t>GOHIL</t>
+  </si>
+  <si>
+    <t>ARYAKUMAR</t>
+  </si>
+  <si>
+    <t>VIJAYBHAI</t>
+  </si>
+  <si>
+    <t>Goti</t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>Rashikbhai</t>
+  </si>
+  <si>
+    <t>Harsh</t>
+  </si>
+  <si>
+    <t>Indravadan</t>
+  </si>
+  <si>
+    <t>Dhruv</t>
+  </si>
+  <si>
+    <t>Bhadreshbhai</t>
+  </si>
+  <si>
+    <t>Nakarani</t>
+  </si>
+  <si>
+    <t>bhuvan</t>
+  </si>
+  <si>
+    <t>jaysukhbhai</t>
+  </si>
+  <si>
+    <t>Sanghani</t>
+  </si>
+  <si>
+    <t>Vaibhav</t>
+  </si>
+  <si>
+    <t>GADHIYA</t>
+  </si>
+  <si>
+    <t>JENIL</t>
+  </si>
+  <si>
+    <t>SUBHASHBHAI</t>
+  </si>
+  <si>
+    <t>Bhartbhai</t>
+  </si>
+  <si>
+    <t>BHIMANI</t>
+  </si>
+  <si>
+    <t>VASU</t>
+  </si>
+  <si>
+    <t>RAKESHBHAI</t>
+  </si>
+  <si>
+    <t>Vadoliya</t>
+  </si>
+  <si>
+    <t>Keval</t>
+  </si>
+  <si>
+    <t>Kiritbhai</t>
+  </si>
+  <si>
+    <t>Mangroliya</t>
+  </si>
+  <si>
+    <t>Rajvi</t>
+  </si>
+  <si>
+    <t>Bhaveshbhai</t>
+  </si>
+  <si>
+    <t>GOSWAMI</t>
+  </si>
+  <si>
+    <t>RUDRAGIRI</t>
+  </si>
+  <si>
+    <t>RITIKGIRI</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Chetanbhai</t>
+  </si>
+  <si>
+    <t>Kansara</t>
+  </si>
+  <si>
+    <t>parth</t>
+  </si>
+  <si>
+    <t>manjibhai</t>
+  </si>
+  <si>
+    <t>Prashant</t>
+  </si>
+  <si>
+    <t>NarshiBhai</t>
+  </si>
+  <si>
+    <t>Parmar</t>
+  </si>
+  <si>
+    <t>Fenil</t>
+  </si>
+  <si>
+    <t>Amrutbhai</t>
+  </si>
+  <si>
+    <t>Chinchavale</t>
+  </si>
+  <si>
+    <t>Trushnal</t>
+  </si>
+  <si>
+    <t>Shashikant</t>
+  </si>
+  <si>
+    <t>Gajjar</t>
+  </si>
+  <si>
+    <t>Dilipbhai</t>
+  </si>
+  <si>
+    <t>Jena</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>Sharat</t>
+  </si>
+  <si>
+    <t>Keyur</t>
+  </si>
+  <si>
+    <t>Dineshbhai</t>
+  </si>
+  <si>
+    <t>Burkhawala</t>
+  </si>
+  <si>
+    <t>Vishnu</t>
+  </si>
+  <si>
+    <t>Dharmeshkumar</t>
+  </si>
+  <si>
+    <t>CHAUHAN</t>
+  </si>
+  <si>
+    <t>YASH</t>
+  </si>
+  <si>
+    <t>MANISHKUMAR</t>
+  </si>
+  <si>
+    <t>DUDHAREJIYA</t>
+  </si>
+  <si>
+    <t>GAURAV</t>
+  </si>
+  <si>
+    <t>Hapani</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>Prem</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>CHAUDHARI</t>
+  </si>
+  <si>
+    <t>TUSHAR</t>
+  </si>
+  <si>
+    <t>MUKESHBHAI</t>
+  </si>
+  <si>
+    <t>Sadadiya</t>
+  </si>
+  <si>
+    <t>Ambaram</t>
+  </si>
+  <si>
+    <t>Bhingradiya</t>
+  </si>
+  <si>
+    <t>BAISANE</t>
+  </si>
+  <si>
+    <t>HITESH</t>
+  </si>
+  <si>
+    <t>KAILAS</t>
+  </si>
+  <si>
+    <t>Chapadiya</t>
+  </si>
+  <si>
+    <t>Jadhav</t>
+  </si>
+  <si>
+    <t>Sujal</t>
+  </si>
+  <si>
+    <t>Satish</t>
+  </si>
+  <si>
+    <t>Baria</t>
+  </si>
+  <si>
+    <t>Nihar</t>
+  </si>
+  <si>
+    <t>Rajeshkumar</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Pastagia</t>
+  </si>
+  <si>
+    <t>Jash</t>
+  </si>
+  <si>
+    <t>Yagneshkumar</t>
+  </si>
+  <si>
+    <t>TRIVEDI</t>
+  </si>
+  <si>
+    <t>JITANSHU</t>
+  </si>
+  <si>
+    <t>ARVINDBHAI</t>
+  </si>
+  <si>
+    <t>Gavhale</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Liladhar</t>
+  </si>
+  <si>
+    <t>SHAIKH</t>
+  </si>
+  <si>
+    <t>ABDULAHAD</t>
+  </si>
+  <si>
+    <t>PERWAIZ</t>
+  </si>
+  <si>
+    <t>zeel</t>
+  </si>
+  <si>
+    <t>Mathukiya</t>
+  </si>
+  <si>
+    <t>Naitik</t>
+  </si>
+  <si>
+    <t>Girdharbhai</t>
+  </si>
+  <si>
+    <t>Surti</t>
+  </si>
+  <si>
+    <t>Burhanuddin</t>
+  </si>
+  <si>
+    <t>Hunaid</t>
+  </si>
+  <si>
+    <t>Dharmik</t>
+  </si>
+  <si>
+    <t>Talaviya</t>
+  </si>
+  <si>
+    <t>Kishan</t>
+  </si>
+  <si>
+    <t>Rameshbhai</t>
+  </si>
+  <si>
+    <t>Mevawala</t>
+  </si>
+  <si>
+    <t>Pujan</t>
+  </si>
+  <si>
+    <t>Jignesh</t>
+  </si>
+  <si>
+    <t>Dobariya</t>
+  </si>
+  <si>
+    <t>Rutik</t>
+  </si>
+  <si>
+    <t>Mukeshbhai</t>
+  </si>
+  <si>
+    <t>Vibhute</t>
+  </si>
+  <si>
+    <t>Kalpesh</t>
+  </si>
+  <si>
+    <t>Nandkishor</t>
+  </si>
+  <si>
+    <t>Dhruvi</t>
+  </si>
+  <si>
+    <t>Vipulbhai</t>
+  </si>
+  <si>
+    <t>Pandey</t>
+  </si>
+  <si>
+    <t>Sushant</t>
+  </si>
+  <si>
+    <t>Arbindkumar</t>
+  </si>
+  <si>
+    <t>Janakbhai</t>
+  </si>
+  <si>
+    <t>DpinKumar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,11 +652,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -116,17 +681,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B72B08-3733-48B9-A272-49C97767B395}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,10 +1016,11 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -467,101 +1033,1012 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>206120316001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>206120316003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>206120316004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>206120316005</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>206120316006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>206120316007</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>206120316008</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>206120316008</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>206120316009</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>206120316010</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>206120316011</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>206120316012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>206120316014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>206120316015</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>206120316016</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>206120316017</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>206120316019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>206120316020</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>206120316021</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>206120316022</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>206120316023</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>206120316024</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>206120316025</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>206120316026</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>206120316027</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>206120316029</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>206120316030</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>206120316031</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>206120316032</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>206120316033</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>206120316034</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>206120316035</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>206120316036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>206120316037</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>206120316038</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>206120316039</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>206120316041</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>206120316042</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>206120316042</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>206120316017</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15"/>
+      <c r="E38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>206120316043</v>
+      </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>206120316044</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>206120316045</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>206120316046</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>206120316048</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>206120316049</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>206120316050</v>
+      </c>
+      <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>206120316051</v>
+      </c>
+      <c r="B46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>206120316052</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>206120316053</v>
+      </c>
+      <c r="B48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>206120316054</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>206120316055</v>
+      </c>
+      <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>206120316056</v>
+      </c>
+      <c r="B51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>206120316057</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>206120316058</v>
+      </c>
+      <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>206120316059</v>
+      </c>
+      <c r="B54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>206120316060</v>
+      </c>
+      <c r="B55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{986A57E6-332A-471F-91C4-DC134BA6695C}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{445DF5DE-59F0-483F-82E5-FFCD17F4BF4D}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{B941AD5D-7C12-4665-AC28-9DA4E3DF45D3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>